--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_12-05.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_12-05.xlsx
@@ -47,12 +47,15 @@
     <t>3:1</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
   </si>
   <si>
     <t>EUTHYROX 50MCG 50 TAB</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
     <t>FLECTOR 50MG 30 CAPS</t>
@@ -794,17 +800,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -820,17 +826,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -838,7 +844,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -846,17 +852,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -864,7 +870,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -872,13 +878,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -898,13 +904,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -930,11 +936,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -950,17 +956,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -976,17 +982,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -994,7 +1000,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1002,17 +1008,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1020,7 +1026,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1028,13 +1034,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1046,7 +1052,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1060,11 +1066,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1072,7 +1078,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1080,13 +1086,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1106,17 +1112,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1132,13 +1138,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1150,7 +1156,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1158,13 +1164,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1176,7 +1182,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1184,13 +1190,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>149.5</v>
+        <v>24</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1202,7 +1208,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1210,17 +1216,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1236,17 +1242,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>18</v>
+        <v>149.5</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1262,17 +1268,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1288,17 +1294,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1320,7 +1326,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1340,17 +1346,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>66.640000000000001</v>
+        <v>26</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1366,17 +1372,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1392,17 +1398,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>40</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1418,17 +1424,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1436,7 +1442,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1444,51 +1450,103 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="32" ht="26.25" customHeight="1">
-      <c r="K32" s="10">
-        <v>1459.1400000000001</v>
-      </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="11">
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="6">
+        <v>29</v>
+      </c>
+      <c t="s" r="B32" s="7">
+        <v>46</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c t="s" r="H32" s="8">
         <v>47</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c t="s" r="F33" s="12">
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9">
+        <v>2</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c t="s" r="N32" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" ht="25.5" customHeight="1">
+      <c r="A33" s="6">
+        <v>30</v>
+      </c>
+      <c t="s" r="B33" s="7">
         <v>48</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c t="s" r="I33" s="14">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c t="s" r="H33" s="8">
+        <v>13</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9">
+        <v>50</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c t="s" r="N33" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="K34" s="10">
+        <v>1509.1400000000001</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="11">
         <v>49</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c t="s" r="F35" s="12">
+        <v>50</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+      <c t="s" r="I35" s="14">
+        <v>51</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="101">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1580,10 +1638,16 @@
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:N35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
